--- a/gongcheng/lte_zhucai.xlsx
+++ b/gongcheng/lte_zhucai.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>J01010400333</t>
   </si>
@@ -183,6 +183,26 @@
   </si>
   <si>
     <t>RRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J01050900085</t>
+  </si>
+  <si>
+    <t>美化天线-射灯型-800M/2GHz宽频2+2端口</t>
+  </si>
+  <si>
+    <t>天线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J01050900050</t>
+  </si>
+  <si>
+    <t>美化天线-排气管型-800MHz单频4端口天线(17dBi)</t>
+  </si>
+  <si>
+    <t>天线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -861,6 +881,30 @@
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
